--- a/RiskAssessmentChart.xlsx
+++ b/RiskAssessmentChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leier\Documents\GitHub\ECEN3753-FinalProject-erle9960\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4AE561-FFD8-42BE-8072-069008633CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952F79B-F4CD-4638-9737-B704FADB1FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Item</t>
   </si>
@@ -108,34 +108,19 @@
     <t>(see row 5) contact TA/John via Slack</t>
   </si>
   <si>
-    <t xml:space="preserve">too ambitious </t>
-  </si>
-  <si>
-    <t>if behind on project, consider changing the scope to be more reasonable</t>
-  </si>
-  <si>
     <t>Resolved</t>
   </si>
   <si>
-    <t>project's not fully functional</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>understand that mistakes will happen, as long as I comprehended and learned</t>
-  </si>
-  <si>
-    <t>fall behind schedule</t>
-  </si>
-  <si>
-    <t>assess what needs to be done/adjust schedule accordingly</t>
-  </si>
-  <si>
     <t>equipment stops working</t>
   </si>
   <si>
     <t>make sure everythings working, check up often</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics model difficulties </t>
+  </si>
+  <si>
+    <t>trouble moving objects on LCD screen, seek help</t>
   </si>
 </sst>
 </file>
@@ -330,13 +315,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,13 +345,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,7 +1563,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,7 +1636,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -1683,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1756,7 +1729,7 @@
         <v>44278</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
@@ -1792,81 +1765,35 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>2800</v>
       </c>
       <c r="E8" s="2">
-        <v>44278</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>44307</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44278</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44278</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J10">
